--- a/data/trans_bre/P57_AC_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 6,37</t>
+          <t>-7,14; 6,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 11,68</t>
+          <t>-2,86; 11,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 6,95</t>
+          <t>-5,22; 7,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 2,03</t>
+          <t>-10,29; 2,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 10,08</t>
+          <t>-10,42; 9,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 19,7</t>
+          <t>-4,28; 19,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 9,77</t>
+          <t>-6,6; 9,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 4,08</t>
+          <t>-17,69; 3,87</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 10,77</t>
+          <t>-2,78; 11,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 11,68</t>
+          <t>-3,19; 11,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 10,34</t>
+          <t>-1,86; 10,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 7,12</t>
+          <t>-5,41; 6,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 18,72</t>
+          <t>-4,3; 19,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 18,61</t>
+          <t>-4,5; 18,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 14,5</t>
+          <t>-2,44; 14,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 12,01</t>
+          <t>-7,97; 11,97</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 5,85</t>
+          <t>-9,99; 6,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 10,71</t>
+          <t>-3,49; 10,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 7,52</t>
+          <t>-5,44; 7,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 53,2</t>
+          <t>0,02; 53,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 8,16</t>
+          <t>-13,63; 9,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 17,05</t>
+          <t>-5,08; 16,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 9,18</t>
+          <t>-6,28; 9,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 302,75</t>
+          <t>0,16; 393,25</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 6,81</t>
+          <t>-1,37; 6,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 14,13</t>
+          <t>5,63; 13,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 7,83</t>
+          <t>0,88; 8,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 2,47</t>
+          <t>-6,63; 2,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 9,94</t>
+          <t>-1,94; 9,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,5; 21,52</t>
+          <t>8,14; 21,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 10,09</t>
+          <t>0,99; 10,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 4,07</t>
+          <t>-9,94; 3,93</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 13,22</t>
+          <t>0,77; 13,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 10,02</t>
+          <t>0,29; 10,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 8,36</t>
+          <t>0,07; 8,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-22,82; 2,36</t>
+          <t>-25,44; 2,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 20,05</t>
+          <t>1,0; 19,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 14,89</t>
+          <t>0,4; 15,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 10,63</t>
+          <t>0,1; 10,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-32,42; 3,45</t>
+          <t>-35,63; 3,23</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,98; 18,35</t>
+          <t>6,55; 19,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,94; 18,31</t>
+          <t>4,97; 17,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 10,89</t>
+          <t>-0,72; 10,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,42; 32,45</t>
+          <t>10,14; 33,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,4; 35,57</t>
+          <t>10,55; 38,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,14; 33,17</t>
+          <t>7,82; 32,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 15,2</t>
+          <t>-0,88; 14,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22,71; 102,0</t>
+          <t>19,19; 106,77</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,08</t>
+          <t>0,62; 5,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,59; 9,0</t>
+          <t>4,54; 9,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,83</t>
+          <t>1,11; 5,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 17,21</t>
+          <t>-1,26; 17,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 7,66</t>
+          <t>0,87; 7,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,85; 13,79</t>
+          <t>6,7; 13,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 6,17</t>
+          <t>1,4; 6,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 38,01</t>
+          <t>-2,14; 39,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_AC_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P57_AC_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
